--- a/AssignmentV2/Data/Transmission.xlsx
+++ b/AssignmentV2/Data/Transmission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxfavrot/Desktop/46750 Optimization in modern power systems/Assignment/Opti/AssignmentV2/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo Gutierrez\Desktop\Optimization in Modern Power Systems\Assignment\Opti\AssignmentV2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6111EA13-D1C4-464E-9906-AF682300E5F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A448AB-ECFD-45D8-81F6-E43E2C91C9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="14380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission Capacity" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,20 @@
     <sheet name="Python_Line_To_Z_Data" sheetId="3" r:id="rId4"/>
     <sheet name="Python_Z_Connected_To_Z_Data" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -45,7 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -533,48 +546,48 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -590,9 +603,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -630,7 +643,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -736,7 +749,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -878,7 +891,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -892,9 +905,9 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -908,7 +921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -922,7 +935,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -949,9 +962,9 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -965,7 +978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>'Transmission Capacity'!A2</f>
         <v>0</v>
@@ -983,7 +996,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>'Transmission Capacity'!A3</f>
         <v>1</v>
@@ -1014,9 +1027,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1024,7 +1037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1032,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1053,9 +1066,9 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1063,7 +1076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1071,7 +1084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1092,9 +1105,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1102,7 +1115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1110,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>

--- a/AssignmentV2/Data/Transmission.xlsx
+++ b/AssignmentV2/Data/Transmission.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo Gutierrez\Desktop\Optimization in Modern Power Systems\Assignment\Opti\AssignmentV2\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leonr\OneDrive\Documents\DTU\OptimizationInPS\ProjectGit\Opti\AssignmentV2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A448AB-ECFD-45D8-81F6-E43E2C91C9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EBB8C1-7D40-44D0-94AF-861307C545F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52425" yWindow="5685" windowWidth="15270" windowHeight="9390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission Capacity" sheetId="1" r:id="rId1"/>
@@ -905,9 +905,9 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -921,7 +921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -935,7 +935,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -959,12 +959,12 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -978,7 +978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2">
         <f>'Transmission Capacity'!A2</f>
         <v>0</v>
@@ -992,11 +992,10 @@
         <v>0.4</v>
       </c>
       <c r="D2">
-        <f>'Transmission Capacity'!D2</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3">
         <f>'Transmission Capacity'!A3</f>
         <v>1</v>
@@ -1010,8 +1009,7 @@
         <v>0.4</v>
       </c>
       <c r="D3">
-        <f>'Transmission Capacity'!D3</f>
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1027,9 +1025,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1037,7 +1035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1045,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1066,9 +1064,9 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1076,7 +1074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1084,7 +1082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1105,9 +1103,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1115,7 +1113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1123,7 +1121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>1</v>
       </c>
